--- a/Data/WarsAnalysis/WarsAnalysis.xlsx
+++ b/Data/WarsAnalysis/WarsAnalysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbbfilm/Documents/BasketballAnalyticsPortal/Data/WarsAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0021AF0-3D51-EA46-AB04-6E153B1D13CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE7AE8B-ED0A-C242-91F9-B4242ED4B653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="29200" windowHeight="18980" xr2:uid="{844EBB4D-025B-E04F-A75E-E177307491E4}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="104">
   <si>
     <t>WarNum</t>
   </si>
@@ -341,6 +341,18 @@
   <si>
     <t>PTS Scored</t>
   </si>
+  <si>
+    <t>UCA</t>
+  </si>
+  <si>
+    <t>5-0</t>
+  </si>
+  <si>
+    <t>HomeGame</t>
+  </si>
+  <si>
+    <t>UNA</t>
+  </si>
 </sst>
 </file>
 
@@ -495,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -518,6 +530,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2625,7 +2638,268 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{557DDF41-715E-BB4F-9F61-77278B66C5BB}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C186F50-154B-A147-B546-F869F4B3C03D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AD1:AF4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="20" showAll="0">
+      <items count="67">
+        <item x="7"/>
+        <item x="10"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="64"/>
+        <item x="4"/>
+        <item x="56"/>
+        <item x="15"/>
+        <item x="41"/>
+        <item x="62"/>
+        <item x="12"/>
+        <item x="33"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="61"/>
+        <item x="53"/>
+        <item x="58"/>
+        <item x="63"/>
+        <item x="22"/>
+        <item x="14"/>
+        <item x="57"/>
+        <item x="39"/>
+        <item x="20"/>
+        <item x="65"/>
+        <item x="27"/>
+        <item x="32"/>
+        <item x="34"/>
+        <item x="19"/>
+        <item x="36"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="49"/>
+        <item x="47"/>
+        <item x="52"/>
+        <item x="59"/>
+        <item x="5"/>
+        <item x="48"/>
+        <item x="60"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="43"/>
+        <item x="46"/>
+        <item x="51"/>
+        <item x="37"/>
+        <item x="24"/>
+        <item x="44"/>
+        <item x="50"/>
+        <item x="30"/>
+        <item x="54"/>
+        <item x="31"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="16"/>
+        <item x="45"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="55"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="35"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="63">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="27">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Lineup" fld="12" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Average of Seconds" fld="19" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="4" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{557DDF41-715E-BB4F-9F61-77278B66C5BB}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="V1:AA51" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -3073,274 +3347,13 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C186F50-154B-A147-B546-F869F4B3C03D}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AD1:AF4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="20" showAll="0">
-      <items count="67">
-        <item x="7"/>
-        <item x="10"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="64"/>
-        <item x="4"/>
-        <item x="56"/>
-        <item x="15"/>
-        <item x="41"/>
-        <item x="62"/>
-        <item x="12"/>
-        <item x="33"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="61"/>
-        <item x="53"/>
-        <item x="58"/>
-        <item x="63"/>
-        <item x="22"/>
-        <item x="14"/>
-        <item x="57"/>
-        <item x="39"/>
-        <item x="20"/>
-        <item x="65"/>
-        <item x="27"/>
-        <item x="32"/>
-        <item x="34"/>
-        <item x="19"/>
-        <item x="36"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="49"/>
-        <item x="47"/>
-        <item x="52"/>
-        <item x="59"/>
-        <item x="5"/>
-        <item x="48"/>
-        <item x="60"/>
-        <item x="11"/>
-        <item x="2"/>
-        <item x="43"/>
-        <item x="46"/>
-        <item x="51"/>
-        <item x="37"/>
-        <item x="24"/>
-        <item x="44"/>
-        <item x="50"/>
-        <item x="30"/>
-        <item x="54"/>
-        <item x="31"/>
-        <item x="17"/>
-        <item x="25"/>
-        <item x="16"/>
-        <item x="45"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="55"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="42"/>
-        <item x="35"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="63">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="27">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Lineup" fld="12" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Average of Seconds" fld="19" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="4" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="4" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}" name="WarsAnalysis" displayName="WarsAnalysis" ref="A1:K161" totalsRowShown="0">
-  <autoFilter ref="A1:K161" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}" name="WarsAnalysis" displayName="WarsAnalysis" ref="A1:L182" totalsRowShown="0">
+  <autoFilter ref="A1:L182" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K161">
     <sortCondition ref="K1:K161"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{5C31A377-5D7E-7646-9673-6CFCAFB6C9DC}" name="WarNum"/>
     <tableColumn id="2" xr3:uid="{59583B98-5196-A141-9F75-194A211B3FD4}" name="BU_Score"/>
     <tableColumn id="3" xr3:uid="{3D4AD2AE-8D5B-E748-8542-C2D124DE7B2E}" name="Opp_Score"/>
@@ -3354,6 +3367,7 @@
     <tableColumn id="9" xr3:uid="{C7796497-F3C6-FA42-B396-9CA14F56958A}" name="WarLabel"/>
     <tableColumn id="10" xr3:uid="{9556BAD2-96F4-4B46-AD95-E72C73CD19ED}" name="Half"/>
     <tableColumn id="12" xr3:uid="{254DA023-9614-2745-8BE9-8733CA318A3B}" name="GameOrder"/>
+    <tableColumn id="11" xr3:uid="{3DB6238F-6D41-9A44-986F-6EDB8430F0C7}" name="HomeGame"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3723,26 +3737,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F10F05-03F4-A745-9F0E-4F1A51D27D02}">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="L181" sqref="L181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3776,8 +3793,11 @@
       <c r="K1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3788,7 +3808,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <f>B2-C2</f>
+        <f t="shared" ref="D2:D33" si="0">B2-C2</f>
         <v>3</v>
       </c>
       <c r="E2">
@@ -3813,8 +3833,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3825,7 +3848,7 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <f>B3-C3</f>
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
       <c r="E3">
@@ -3850,8 +3873,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3862,7 +3888,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <f>B4-C4</f>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="E4">
@@ -3887,8 +3913,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3899,7 +3928,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <f>B5-C5</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E5">
@@ -3924,8 +3953,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3936,7 +3968,7 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <f>B6-C6</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="E6">
@@ -3961,8 +3993,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3973,7 +4008,7 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <f>B7-C7</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="E7">
@@ -3998,8 +4033,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4010,7 +4048,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <f>B8-C8</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="E8">
@@ -4035,8 +4073,11 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4047,7 +4088,7 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <f>B9-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9">
@@ -4072,8 +4113,11 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4084,7 +4128,7 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <f>B10-C10</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E10">
@@ -4109,8 +4153,11 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4121,7 +4168,7 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <f>B11-C11</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E11">
@@ -4146,8 +4193,11 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4158,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <f>B12-C12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E12">
@@ -4183,8 +4233,11 @@
       <c r="K12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4195,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <f>B13-C13</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E13">
@@ -4220,8 +4273,11 @@
       <c r="K13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4232,7 +4288,7 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <f>B14-C14</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="E14">
@@ -4257,8 +4313,11 @@
       <c r="K14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4269,7 +4328,7 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <f>B15-C15</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E15">
@@ -4294,8 +4353,11 @@
       <c r="K15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4306,7 +4368,7 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <f>B16-C16</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E16">
@@ -4331,8 +4393,11 @@
       <c r="K16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -4343,7 +4408,7 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <f>B17-C17</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="E17">
@@ -4368,8 +4433,11 @@
       <c r="K17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7</v>
       </c>
@@ -4380,7 +4448,7 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <f>B18-C18</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E18">
@@ -4405,8 +4473,11 @@
       <c r="K18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8</v>
       </c>
@@ -4417,7 +4488,7 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <f>B19-C19</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E19">
@@ -4442,8 +4513,11 @@
       <c r="K19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9</v>
       </c>
@@ -4454,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="D20">
-        <f>B20-C20</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E20">
@@ -4479,8 +4553,11 @@
       <c r="K20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10</v>
       </c>
@@ -4491,7 +4568,7 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <f>B21-C21</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="E21">
@@ -4516,8 +4593,11 @@
       <c r="K21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4528,7 +4608,7 @@
         <v>13</v>
       </c>
       <c r="D22">
-        <f>B22-C22</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="E22">
@@ -4553,8 +4633,11 @@
       <c r="K22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -4565,7 +4648,7 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <f>B23-C23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
@@ -4590,8 +4673,11 @@
       <c r="K23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4602,7 +4688,7 @@
         <v>12</v>
       </c>
       <c r="D24">
-        <f>B24-C24</f>
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
       <c r="E24">
@@ -4627,8 +4713,11 @@
       <c r="K24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -4639,7 +4728,7 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <f>B25-C25</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="E25">
@@ -4664,8 +4753,11 @@
       <c r="K25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -4676,7 +4768,7 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <f>B26-C26</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="E26">
@@ -4701,8 +4793,11 @@
       <c r="K26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -4713,7 +4808,7 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <f>B27-C27</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E27">
@@ -4738,8 +4833,11 @@
       <c r="K27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -4750,7 +4848,7 @@
         <v>11</v>
       </c>
       <c r="D28">
-        <f>B28-C28</f>
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="E28">
@@ -4775,8 +4873,11 @@
       <c r="K28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8</v>
       </c>
@@ -4787,7 +4888,7 @@
         <v>15</v>
       </c>
       <c r="D29">
-        <f>B29-C29</f>
+        <f t="shared" si="0"/>
         <v>-7</v>
       </c>
       <c r="E29">
@@ -4812,8 +4913,11 @@
       <c r="K29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>9</v>
       </c>
@@ -4824,7 +4928,7 @@
         <v>11</v>
       </c>
       <c r="D30">
-        <f>B30-C30</f>
+        <f t="shared" si="0"/>
         <v>-9</v>
       </c>
       <c r="E30">
@@ -4849,8 +4953,11 @@
       <c r="K30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10</v>
       </c>
@@ -4861,7 +4968,7 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <f>B31-C31</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="E31">
@@ -4886,8 +4993,11 @@
       <c r="K31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4898,7 +5008,7 @@
         <v>10</v>
       </c>
       <c r="D32">
-        <f>B32-C32</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="E32">
@@ -4923,8 +5033,11 @@
       <c r="K32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -4935,7 +5048,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <f>B33-C33</f>
+        <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="E33">
@@ -4960,8 +5073,11 @@
       <c r="K33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -4972,7 +5088,7 @@
         <v>13</v>
       </c>
       <c r="D34">
-        <f>B34-C34</f>
+        <f t="shared" ref="D34:D65" si="1">B34-C34</f>
         <v>-9</v>
       </c>
       <c r="E34">
@@ -4997,8 +5113,11 @@
       <c r="K34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -5009,7 +5128,7 @@
         <v>7</v>
       </c>
       <c r="D35">
-        <f>B35-C35</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E35">
@@ -5034,8 +5153,11 @@
       <c r="K35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -5046,7 +5168,7 @@
         <v>11</v>
       </c>
       <c r="D36">
-        <f>B36-C36</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="E36">
@@ -5071,8 +5193,11 @@
       <c r="K36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6</v>
       </c>
@@ -5083,7 +5208,7 @@
         <v>9</v>
       </c>
       <c r="D37">
-        <f>B37-C37</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E37">
@@ -5108,8 +5233,11 @@
       <c r="K37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7</v>
       </c>
@@ -5120,7 +5248,7 @@
         <v>15</v>
       </c>
       <c r="D38">
-        <f>B38-C38</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="E38">
@@ -5145,8 +5273,11 @@
       <c r="K38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8</v>
       </c>
@@ -5157,7 +5288,7 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <f>B39-C39</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="E39">
@@ -5182,8 +5313,11 @@
       <c r="K39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9</v>
       </c>
@@ -5194,7 +5328,7 @@
         <v>11</v>
       </c>
       <c r="D40">
-        <f>B40-C40</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="E40">
@@ -5219,8 +5353,11 @@
       <c r="K40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -5231,7 +5368,7 @@
         <v>14</v>
       </c>
       <c r="D41">
-        <f>B41-C41</f>
+        <f t="shared" si="1"/>
         <v>-10</v>
       </c>
       <c r="E41">
@@ -5256,8 +5393,11 @@
       <c r="K41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5268,7 +5408,7 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <f>B42-C42</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E42">
@@ -5293,8 +5433,11 @@
       <c r="K42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -5305,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <f>B43-C43</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E43">
@@ -5330,8 +5473,11 @@
       <c r="K43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -5342,7 +5488,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <f>B44-C44</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E44">
@@ -5367,8 +5513,11 @@
       <c r="K44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -5379,7 +5528,7 @@
         <v>12</v>
       </c>
       <c r="D45">
-        <f>B45-C45</f>
+        <f t="shared" si="1"/>
         <v>-7</v>
       </c>
       <c r="E45">
@@ -5404,8 +5553,11 @@
       <c r="K45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -5416,7 +5568,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <f>B46-C46</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E46">
@@ -5441,8 +5593,11 @@
       <c r="K46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>6</v>
       </c>
@@ -5453,7 +5608,7 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <f>B47-C47</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E47">
@@ -5478,8 +5633,11 @@
       <c r="K47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -5490,7 +5648,7 @@
         <v>6</v>
       </c>
       <c r="D48">
-        <f>B48-C48</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E48">
@@ -5515,8 +5673,11 @@
       <c r="K48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8</v>
       </c>
@@ -5527,7 +5688,7 @@
         <v>8</v>
       </c>
       <c r="D49">
-        <f>B49-C49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E49">
@@ -5552,8 +5713,11 @@
       <c r="K49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>9</v>
       </c>
@@ -5564,7 +5728,7 @@
         <v>8</v>
       </c>
       <c r="D50">
-        <f>B50-C50</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E50">
@@ -5589,8 +5753,11 @@
       <c r="K50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -5601,7 +5768,7 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <f>B51-C51</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E51">
@@ -5626,8 +5793,11 @@
       <c r="K51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -5638,7 +5808,7 @@
         <v>8</v>
       </c>
       <c r="D52">
-        <f>B52-C52</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E52">
@@ -5663,8 +5833,11 @@
       <c r="K52">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -5675,7 +5848,7 @@
         <v>14</v>
       </c>
       <c r="D53">
-        <f>B53-C53</f>
+        <f t="shared" si="1"/>
         <v>-9</v>
       </c>
       <c r="E53">
@@ -5700,8 +5873,11 @@
       <c r="K53">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -5712,7 +5888,7 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <f>B54-C54</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E54">
@@ -5737,8 +5913,11 @@
       <c r="K54">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4</v>
       </c>
@@ -5749,7 +5928,7 @@
         <v>10</v>
       </c>
       <c r="D55">
-        <f>B55-C55</f>
+        <f t="shared" si="1"/>
         <v>-8</v>
       </c>
       <c r="E55">
@@ -5774,8 +5953,11 @@
       <c r="K55">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5</v>
       </c>
@@ -5786,7 +5968,7 @@
         <v>13</v>
       </c>
       <c r="D56">
-        <f>B56-C56</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="E56">
@@ -5811,8 +5993,11 @@
       <c r="K56">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6</v>
       </c>
@@ -5823,7 +6008,7 @@
         <v>10</v>
       </c>
       <c r="D57">
-        <f>B57-C57</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="E57">
@@ -5848,8 +6033,11 @@
       <c r="K57">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>7</v>
       </c>
@@ -5860,7 +6048,7 @@
         <v>8</v>
       </c>
       <c r="D58">
-        <f>B58-C58</f>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
       <c r="E58">
@@ -5885,8 +6073,11 @@
       <c r="K58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>8</v>
       </c>
@@ -5897,7 +6088,7 @@
         <v>4</v>
       </c>
       <c r="D59">
-        <f>B59-C59</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E59">
@@ -5922,8 +6113,11 @@
       <c r="K59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>9</v>
       </c>
@@ -5934,7 +6128,7 @@
         <v>7</v>
       </c>
       <c r="D60">
-        <f>B60-C60</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="E60">
@@ -5959,8 +6153,11 @@
       <c r="K60">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10</v>
       </c>
@@ -5971,7 +6168,7 @@
         <v>14</v>
       </c>
       <c r="D61">
-        <f>B61-C61</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E61">
@@ -5996,8 +6193,11 @@
       <c r="K61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -6008,7 +6208,7 @@
         <v>7</v>
       </c>
       <c r="D62">
-        <f>B62-C62</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="E62">
@@ -6033,8 +6233,11 @@
       <c r="K62">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -6045,7 +6248,7 @@
         <v>7</v>
       </c>
       <c r="D63">
-        <f>B63-C63</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E63">
@@ -6070,8 +6273,11 @@
       <c r="K63">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -6082,7 +6288,7 @@
         <v>5</v>
       </c>
       <c r="D64">
-        <f>B64-C64</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E64">
@@ -6107,8 +6313,11 @@
       <c r="K64">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4</v>
       </c>
@@ -6119,7 +6328,7 @@
         <v>8</v>
       </c>
       <c r="D65">
-        <f>B65-C65</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="E65">
@@ -6144,8 +6353,11 @@
       <c r="K65">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5</v>
       </c>
@@ -6156,7 +6368,7 @@
         <v>10</v>
       </c>
       <c r="D66">
-        <f>B66-C66</f>
+        <f t="shared" ref="D66:D97" si="2">B66-C66</f>
         <v>-6</v>
       </c>
       <c r="E66">
@@ -6181,8 +6393,11 @@
       <c r="K66">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6</v>
       </c>
@@ -6193,7 +6408,7 @@
         <v>13</v>
       </c>
       <c r="D67">
-        <f>B67-C67</f>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="E67">
@@ -6218,8 +6433,11 @@
       <c r="K67">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7</v>
       </c>
@@ -6230,7 +6448,7 @@
         <v>12</v>
       </c>
       <c r="D68">
-        <f>B68-C68</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="E68">
@@ -6255,8 +6473,11 @@
       <c r="K68">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>8</v>
       </c>
@@ -6267,7 +6488,7 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <f>B69-C69</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="E69">
@@ -6292,8 +6513,11 @@
       <c r="K69">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>9</v>
       </c>
@@ -6304,7 +6528,7 @@
         <v>8</v>
       </c>
       <c r="D70">
-        <f>B70-C70</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E70">
@@ -6329,8 +6553,11 @@
       <c r="K70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10</v>
       </c>
@@ -6341,7 +6568,7 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <f>B71-C71</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E71">
@@ -6366,8 +6593,11 @@
       <c r="K71">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -6378,7 +6608,7 @@
         <v>9</v>
       </c>
       <c r="D72">
-        <f>B72-C72</f>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="E72">
@@ -6403,8 +6633,11 @@
       <c r="K72">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2</v>
       </c>
@@ -6415,7 +6648,7 @@
         <v>4</v>
       </c>
       <c r="D73">
-        <f>B73-C73</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="E73">
@@ -6440,8 +6673,11 @@
       <c r="K73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -6452,7 +6688,7 @@
         <v>8</v>
       </c>
       <c r="D74">
-        <f>B74-C74</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E74">
@@ -6477,8 +6713,11 @@
       <c r="K74">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4</v>
       </c>
@@ -6489,7 +6728,7 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <f>B75-C75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E75">
@@ -6514,8 +6753,11 @@
       <c r="K75">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5</v>
       </c>
@@ -6526,7 +6768,7 @@
         <v>6</v>
       </c>
       <c r="D76">
-        <f>B76-C76</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E76">
@@ -6551,8 +6793,11 @@
       <c r="K76">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>6</v>
       </c>
@@ -6563,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <f>B77-C77</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E77">
@@ -6588,8 +6833,11 @@
       <c r="K77">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>7</v>
       </c>
@@ -6600,7 +6848,7 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <f>B78-C78</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E78">
@@ -6625,8 +6873,11 @@
       <c r="K78">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>8</v>
       </c>
@@ -6637,7 +6888,7 @@
         <v>6</v>
       </c>
       <c r="D79">
-        <f>B79-C79</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E79">
@@ -6662,8 +6913,11 @@
       <c r="K79">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>9</v>
       </c>
@@ -6674,7 +6928,7 @@
         <v>6</v>
       </c>
       <c r="D80">
-        <f>B80-C80</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E80">
@@ -6699,8 +6953,11 @@
       <c r="K80">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10</v>
       </c>
@@ -6711,7 +6968,7 @@
         <v>9</v>
       </c>
       <c r="D81">
-        <f>B81-C81</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="E81">
@@ -6736,8 +6993,11 @@
       <c r="K81">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -6748,7 +7008,7 @@
         <v>11</v>
       </c>
       <c r="D82">
-        <f>B82-C82</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="E82">
@@ -6773,8 +7033,11 @@
       <c r="K82">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2</v>
       </c>
@@ -6785,7 +7048,7 @@
         <v>3</v>
       </c>
       <c r="D83">
-        <f>B83-C83</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E83">
@@ -6810,8 +7073,11 @@
       <c r="K83">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3</v>
       </c>
@@ -6822,7 +7088,7 @@
         <v>8</v>
       </c>
       <c r="D84">
-        <f>B84-C84</f>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="E84">
@@ -6847,8 +7113,11 @@
       <c r="K84">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4</v>
       </c>
@@ -6859,7 +7128,7 @@
         <v>10</v>
       </c>
       <c r="D85">
-        <f>B85-C85</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E85">
@@ -6884,8 +7153,11 @@
       <c r="K85">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5</v>
       </c>
@@ -6896,7 +7168,7 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <f>B86-C86</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="E86">
@@ -6921,8 +7193,11 @@
       <c r="K86">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6</v>
       </c>
@@ -6933,7 +7208,7 @@
         <v>6</v>
       </c>
       <c r="D87">
-        <f>B87-C87</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E87">
@@ -6958,8 +7233,11 @@
       <c r="K87">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>7</v>
       </c>
@@ -6970,7 +7248,7 @@
         <v>10</v>
       </c>
       <c r="D88">
-        <f>B88-C88</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="E88">
@@ -6995,8 +7273,11 @@
       <c r="K88">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8</v>
       </c>
@@ -7007,7 +7288,7 @@
         <v>3</v>
       </c>
       <c r="D89">
-        <f>B89-C89</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E89">
@@ -7032,8 +7313,11 @@
       <c r="K89">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>9</v>
       </c>
@@ -7044,7 +7328,7 @@
         <v>3</v>
       </c>
       <c r="D90">
-        <f>B90-C90</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E90">
@@ -7069,8 +7353,11 @@
       <c r="K90">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10</v>
       </c>
@@ -7081,7 +7368,7 @@
         <v>9</v>
       </c>
       <c r="D91">
-        <f>B91-C91</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="E91">
@@ -7106,8 +7393,11 @@
       <c r="K91">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -7118,7 +7408,7 @@
         <v>12</v>
       </c>
       <c r="D92">
-        <f>B92-C92</f>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="E92">
@@ -7143,8 +7433,11 @@
       <c r="K92">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2</v>
       </c>
@@ -7155,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <f>B93-C93</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E93">
@@ -7180,8 +7473,11 @@
       <c r="K93">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3</v>
       </c>
@@ -7192,7 +7488,7 @@
         <v>2</v>
       </c>
       <c r="D94">
-        <f>B94-C94</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="E94">
@@ -7217,8 +7513,11 @@
       <c r="K94">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4</v>
       </c>
@@ -7229,7 +7528,7 @@
         <v>8</v>
       </c>
       <c r="D95">
-        <f>B95-C95</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E95">
@@ -7254,8 +7553,11 @@
       <c r="K95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5</v>
       </c>
@@ -7266,7 +7568,7 @@
         <v>8</v>
       </c>
       <c r="D96">
-        <f>B96-C96</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E96">
@@ -7291,8 +7593,11 @@
       <c r="K96">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>6</v>
       </c>
@@ -7303,7 +7608,7 @@
         <v>9</v>
       </c>
       <c r="D97">
-        <f>B97-C97</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E97">
@@ -7328,8 +7633,11 @@
       <c r="K97">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>7</v>
       </c>
@@ -7340,7 +7648,7 @@
         <v>3</v>
       </c>
       <c r="D98">
-        <f>B98-C98</f>
+        <f t="shared" ref="D98:D129" si="3">B98-C98</f>
         <v>7</v>
       </c>
       <c r="E98">
@@ -7365,8 +7673,11 @@
       <c r="K98">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8</v>
       </c>
@@ -7377,7 +7688,7 @@
         <v>9</v>
       </c>
       <c r="D99">
-        <f>B99-C99</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E99">
@@ -7402,8 +7713,11 @@
       <c r="K99">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>9</v>
       </c>
@@ -7414,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <f>B100-C100</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E100">
@@ -7439,8 +7753,11 @@
       <c r="K100">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10</v>
       </c>
@@ -7451,7 +7768,7 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <f>B101-C101</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E101">
@@ -7476,8 +7793,11 @@
       <c r="K101">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -7488,7 +7808,7 @@
         <v>13</v>
       </c>
       <c r="D102">
-        <f>B102-C102</f>
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
       <c r="E102">
@@ -7513,8 +7833,11 @@
       <c r="K102">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2</v>
       </c>
@@ -7525,7 +7848,7 @@
         <v>19</v>
       </c>
       <c r="D103">
-        <f>B103-C103</f>
+        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
       <c r="E103">
@@ -7550,8 +7873,11 @@
       <c r="K103">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3</v>
       </c>
@@ -7562,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <f>B104-C104</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E104">
@@ -7587,8 +7913,11 @@
       <c r="K104">
         <v>11</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4</v>
       </c>
@@ -7599,7 +7928,7 @@
         <v>7</v>
       </c>
       <c r="D105">
-        <f>B105-C105</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E105">
@@ -7624,8 +7953,11 @@
       <c r="K105">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>5</v>
       </c>
@@ -7636,7 +7968,7 @@
         <v>8</v>
       </c>
       <c r="D106">
-        <f>B106-C106</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E106">
@@ -7661,8 +7993,11 @@
       <c r="K106">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>6</v>
       </c>
@@ -7673,7 +8008,7 @@
         <v>8</v>
       </c>
       <c r="D107">
-        <f>B107-C107</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="E107">
@@ -7698,8 +8033,11 @@
       <c r="K107">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>7</v>
       </c>
@@ -7710,7 +8048,7 @@
         <v>7</v>
       </c>
       <c r="D108">
-        <f>B108-C108</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="E108">
@@ -7735,8 +8073,11 @@
       <c r="K108">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>8</v>
       </c>
@@ -7747,7 +8088,7 @@
         <v>12</v>
       </c>
       <c r="D109">
-        <f>B109-C109</f>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="E109">
@@ -7772,8 +8113,11 @@
       <c r="K109">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>9</v>
       </c>
@@ -7784,7 +8128,7 @@
         <v>2</v>
       </c>
       <c r="D110">
-        <f>B110-C110</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E110">
@@ -7809,8 +8153,11 @@
       <c r="K110">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10</v>
       </c>
@@ -7821,7 +8168,7 @@
         <v>5</v>
       </c>
       <c r="D111">
-        <f>B111-C111</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E111">
@@ -7846,8 +8193,11 @@
       <c r="K111">
         <v>11</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1</v>
       </c>
@@ -7858,7 +8208,7 @@
         <v>13</v>
       </c>
       <c r="D112">
-        <f>B112-C112</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E112">
@@ -7883,8 +8233,11 @@
       <c r="K112">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2</v>
       </c>
@@ -7895,7 +8248,7 @@
         <v>5</v>
       </c>
       <c r="D113">
-        <f>B113-C113</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E113">
@@ -7920,8 +8273,11 @@
       <c r="K113">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3</v>
       </c>
@@ -7932,7 +8288,7 @@
         <v>9</v>
       </c>
       <c r="D114">
-        <f>B114-C114</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="E114">
@@ -7957,8 +8313,11 @@
       <c r="K114">
         <v>12</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>4</v>
       </c>
@@ -7969,7 +8328,7 @@
         <v>13</v>
       </c>
       <c r="D115">
-        <f>B115-C115</f>
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
       <c r="E115">
@@ -7994,8 +8353,11 @@
       <c r="K115">
         <v>12</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>5</v>
       </c>
@@ -8006,7 +8368,7 @@
         <v>4</v>
       </c>
       <c r="D116">
-        <f>B116-C116</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E116">
@@ -8031,8 +8393,11 @@
       <c r="K116">
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>6</v>
       </c>
@@ -8043,7 +8408,7 @@
         <v>14</v>
       </c>
       <c r="D117">
-        <f>B117-C117</f>
+        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
       <c r="E117">
@@ -8068,8 +8433,11 @@
       <c r="K117">
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>7</v>
       </c>
@@ -8080,7 +8448,7 @@
         <v>5</v>
       </c>
       <c r="D118">
-        <f>B118-C118</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="E118">
@@ -8105,8 +8473,11 @@
       <c r="K118">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>8</v>
       </c>
@@ -8117,7 +8488,7 @@
         <v>16</v>
       </c>
       <c r="D119">
-        <f>B119-C119</f>
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
       <c r="E119">
@@ -8142,8 +8513,11 @@
       <c r="K119">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>9</v>
       </c>
@@ -8154,7 +8528,7 @@
         <v>7</v>
       </c>
       <c r="D120">
-        <f>B120-C120</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E120">
@@ -8179,8 +8553,11 @@
       <c r="K120">
         <v>12</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10</v>
       </c>
@@ -8191,7 +8568,7 @@
         <v>4</v>
       </c>
       <c r="D121">
-        <f>B121-C121</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E121">
@@ -8216,8 +8593,11 @@
       <c r="K121">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -8228,7 +8608,7 @@
         <v>4</v>
       </c>
       <c r="D122">
-        <f>B122-C122</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E122">
@@ -8253,8 +8633,11 @@
       <c r="K122">
         <v>13</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2</v>
       </c>
@@ -8265,7 +8648,7 @@
         <v>15</v>
       </c>
       <c r="D123">
-        <f>B123-C123</f>
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
       <c r="E123">
@@ -8290,8 +8673,11 @@
       <c r="K123">
         <v>13</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3</v>
       </c>
@@ -8302,7 +8688,7 @@
         <v>5</v>
       </c>
       <c r="D124">
-        <f>B124-C124</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E124">
@@ -8327,8 +8713,11 @@
       <c r="K124">
         <v>13</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4</v>
       </c>
@@ -8339,7 +8728,7 @@
         <v>7</v>
       </c>
       <c r="D125">
-        <f>B125-C125</f>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="E125">
@@ -8364,8 +8753,11 @@
       <c r="K125">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5</v>
       </c>
@@ -8376,7 +8768,7 @@
         <v>5</v>
       </c>
       <c r="D126">
-        <f>B126-C126</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E126">
@@ -8401,8 +8793,11 @@
       <c r="K126">
         <v>13</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6</v>
       </c>
@@ -8413,7 +8808,7 @@
         <v>10</v>
       </c>
       <c r="D127">
-        <f>B127-C127</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E127">
@@ -8438,8 +8833,11 @@
       <c r="K127">
         <v>13</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7</v>
       </c>
@@ -8450,7 +8848,7 @@
         <v>5</v>
       </c>
       <c r="D128">
-        <f>B128-C128</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E128">
@@ -8475,8 +8873,11 @@
       <c r="K128">
         <v>13</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>8</v>
       </c>
@@ -8487,7 +8888,7 @@
         <v>2</v>
       </c>
       <c r="D129">
-        <f>B129-C129</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E129">
@@ -8512,8 +8913,11 @@
       <c r="K129">
         <v>13</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>9</v>
       </c>
@@ -8524,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <f>B130-C130</f>
+        <f t="shared" ref="D130:D172" si="4">B130-C130</f>
         <v>11</v>
       </c>
       <c r="E130">
@@ -8549,8 +8953,11 @@
       <c r="K130">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>10</v>
       </c>
@@ -8561,7 +8968,7 @@
         <v>11</v>
       </c>
       <c r="D131">
-        <f>B131-C131</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E131">
@@ -8586,8 +8993,11 @@
       <c r="K131">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1</v>
       </c>
@@ -8598,7 +9008,7 @@
         <v>9</v>
       </c>
       <c r="D132">
-        <f>B132-C132</f>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="E132">
@@ -8623,8 +9033,11 @@
       <c r="K132">
         <v>14</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2</v>
       </c>
@@ -8635,7 +9048,7 @@
         <v>8</v>
       </c>
       <c r="D133">
-        <f>B133-C133</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E133">
@@ -8660,8 +9073,11 @@
       <c r="K133">
         <v>14</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3</v>
       </c>
@@ -8672,7 +9088,7 @@
         <v>9</v>
       </c>
       <c r="D134">
-        <f>B134-C134</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="E134">
@@ -8697,8 +9113,11 @@
       <c r="K134">
         <v>14</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>4</v>
       </c>
@@ -8709,7 +9128,7 @@
         <v>11</v>
       </c>
       <c r="D135">
-        <f>B135-C135</f>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="E135">
@@ -8734,8 +9153,11 @@
       <c r="K135">
         <v>14</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>5</v>
       </c>
@@ -8746,7 +9168,7 @@
         <v>9</v>
       </c>
       <c r="D136">
-        <f>B136-C136</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="E136">
@@ -8771,8 +9193,11 @@
       <c r="K136">
         <v>14</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>6</v>
       </c>
@@ -8783,7 +9208,7 @@
         <v>11</v>
       </c>
       <c r="D137">
-        <f>B137-C137</f>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="E137">
@@ -8808,8 +9233,11 @@
       <c r="K137">
         <v>14</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>7</v>
       </c>
@@ -8820,7 +9248,7 @@
         <v>11</v>
       </c>
       <c r="D138">
-        <f>B138-C138</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E138">
@@ -8845,8 +9273,11 @@
       <c r="K138">
         <v>14</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>8</v>
       </c>
@@ -8857,7 +9288,7 @@
         <v>8</v>
       </c>
       <c r="D139">
-        <f>B139-C139</f>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="E139">
@@ -8882,8 +9313,11 @@
       <c r="K139">
         <v>14</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>9</v>
       </c>
@@ -8894,7 +9328,7 @@
         <v>16</v>
       </c>
       <c r="D140">
-        <f>B140-C140</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E140">
@@ -8919,8 +9353,11 @@
       <c r="K140">
         <v>14</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>10</v>
       </c>
@@ -8931,7 +9368,7 @@
         <v>7</v>
       </c>
       <c r="D141">
-        <f>B141-C141</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E141">
@@ -8956,8 +9393,11 @@
       <c r="K141">
         <v>14</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1</v>
       </c>
@@ -8968,7 +9408,7 @@
         <v>13</v>
       </c>
       <c r="D142">
-        <f>B142-C142</f>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="E142">
@@ -8993,8 +9433,11 @@
       <c r="K142">
         <v>15</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2</v>
       </c>
@@ -9005,7 +9448,7 @@
         <v>9</v>
       </c>
       <c r="D143">
-        <f>B143-C143</f>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="E143">
@@ -9030,8 +9473,11 @@
       <c r="K143">
         <v>15</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>3</v>
       </c>
@@ -9042,7 +9488,7 @@
         <v>10</v>
       </c>
       <c r="D144">
-        <f>B144-C144</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E144">
@@ -9067,8 +9513,11 @@
       <c r="K144">
         <v>15</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>4</v>
       </c>
@@ -9079,7 +9528,7 @@
         <v>10</v>
       </c>
       <c r="D145">
-        <f>B145-C145</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="E145">
@@ -9104,8 +9553,11 @@
       <c r="K145">
         <v>15</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>5</v>
       </c>
@@ -9116,7 +9568,7 @@
         <v>10</v>
       </c>
       <c r="D146">
-        <f>B146-C146</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E146">
@@ -9141,8 +9593,11 @@
       <c r="K146">
         <v>15</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>6</v>
       </c>
@@ -9153,7 +9608,7 @@
         <v>12</v>
       </c>
       <c r="D147">
-        <f>B147-C147</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E147">
@@ -9178,8 +9633,11 @@
       <c r="K147">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>7</v>
       </c>
@@ -9190,7 +9648,7 @@
         <v>7</v>
       </c>
       <c r="D148">
-        <f>B148-C148</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E148">
@@ -9215,8 +9673,11 @@
       <c r="K148">
         <v>15</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>8</v>
       </c>
@@ -9227,7 +9688,7 @@
         <v>5</v>
       </c>
       <c r="D149">
-        <f>B149-C149</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E149">
@@ -9252,8 +9713,11 @@
       <c r="K149">
         <v>15</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>9</v>
       </c>
@@ -9264,7 +9728,7 @@
         <v>2</v>
       </c>
       <c r="D150">
-        <f>B150-C150</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E150">
@@ -9289,8 +9753,11 @@
       <c r="K150">
         <v>15</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>10</v>
       </c>
@@ -9301,7 +9768,7 @@
         <v>9</v>
       </c>
       <c r="D151">
-        <f>B151-C151</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E151">
@@ -9326,8 +9793,11 @@
       <c r="K151">
         <v>15</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1</v>
       </c>
@@ -9338,7 +9808,7 @@
         <v>8</v>
       </c>
       <c r="D152">
-        <f>B152-C152</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E152">
@@ -9363,8 +9833,11 @@
       <c r="K152">
         <v>16</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2</v>
       </c>
@@ -9375,7 +9848,7 @@
         <v>10</v>
       </c>
       <c r="D153">
-        <f>B153-C153</f>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="E153">
@@ -9400,8 +9873,11 @@
       <c r="K153">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3</v>
       </c>
@@ -9412,7 +9888,7 @@
         <v>14</v>
       </c>
       <c r="D154">
-        <f>B154-C154</f>
+        <f t="shared" si="4"/>
         <v>-9</v>
       </c>
       <c r="E154">
@@ -9437,8 +9913,11 @@
       <c r="K154">
         <v>16</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4</v>
       </c>
@@ -9449,7 +9928,7 @@
         <v>8</v>
       </c>
       <c r="D155">
-        <f>B155-C155</f>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="E155">
@@ -9474,8 +9953,11 @@
       <c r="K155">
         <v>16</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>5</v>
       </c>
@@ -9486,7 +9968,7 @@
         <v>10</v>
       </c>
       <c r="D156">
-        <f>B156-C156</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E156">
@@ -9511,8 +9993,11 @@
       <c r="K156">
         <v>16</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>6</v>
       </c>
@@ -9523,7 +10008,7 @@
         <v>9</v>
       </c>
       <c r="D157">
-        <f>B157-C157</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E157">
@@ -9548,8 +10033,11 @@
       <c r="K157">
         <v>16</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>7</v>
       </c>
@@ -9560,7 +10048,7 @@
         <v>7</v>
       </c>
       <c r="D158">
-        <f>B158-C158</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E158">
@@ -9585,8 +10073,11 @@
       <c r="K158">
         <v>16</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>8</v>
       </c>
@@ -9597,7 +10088,7 @@
         <v>10</v>
       </c>
       <c r="D159">
-        <f>B159-C159</f>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
       <c r="E159">
@@ -9622,8 +10113,11 @@
       <c r="K159">
         <v>16</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>9</v>
       </c>
@@ -9634,7 +10128,7 @@
         <v>11</v>
       </c>
       <c r="D160">
-        <f>B160-C160</f>
+        <f t="shared" si="4"/>
         <v>-5</v>
       </c>
       <c r="E160">
@@ -9659,8 +10153,11 @@
       <c r="K160">
         <v>16</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>10</v>
       </c>
@@ -9671,7 +10168,7 @@
         <v>11</v>
       </c>
       <c r="D161">
-        <f>B161-C161</f>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="E161">
@@ -9695,6 +10192,849 @@
       </c>
       <c r="K161">
         <v>16</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>11</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="E162">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>100</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>17</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>10</v>
+      </c>
+      <c r="C163">
+        <v>6</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>100</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>17</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>3</v>
+      </c>
+      <c r="B164">
+        <v>10</v>
+      </c>
+      <c r="C164">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="E164">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
+        <v>100</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>17</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>5</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165" t="s">
+        <v>100</v>
+      </c>
+      <c r="H165">
+        <v>1</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>17</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>5</v>
+      </c>
+      <c r="B166">
+        <v>9</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E166">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>100</v>
+      </c>
+      <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>17</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>6</v>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E167">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167" t="s">
+        <v>100</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167">
+        <v>17</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>9</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="E168">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
+        <v>100</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J168">
+        <v>2</v>
+      </c>
+      <c r="K168">
+        <v>17</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>8</v>
+      </c>
+      <c r="B169">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169" t="s">
+        <v>100</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J169">
+        <v>2</v>
+      </c>
+      <c r="K169">
+        <v>17</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>9</v>
+      </c>
+      <c r="B170">
+        <v>8</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170" t="s">
+        <v>100</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J170">
+        <v>2</v>
+      </c>
+      <c r="K170">
+        <v>17</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>10</v>
+      </c>
+      <c r="B171">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>11</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="E171">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>100</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J171">
+        <v>2</v>
+      </c>
+      <c r="K171">
+        <v>17</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>11</v>
+      </c>
+      <c r="B172">
+        <v>13</v>
+      </c>
+      <c r="C172">
+        <v>7</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E172">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172" t="s">
+        <v>100</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J172">
+        <v>3</v>
+      </c>
+      <c r="K172">
+        <v>17</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>16</v>
+      </c>
+      <c r="C173">
+        <v>6</v>
+      </c>
+      <c r="D173">
+        <f t="shared" ref="D173:D182" si="5">B173-C173</f>
+        <v>10</v>
+      </c>
+      <c r="E173" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>103</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>18</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>2</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E174" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174" t="s">
+        <v>103</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>18</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>3</v>
+      </c>
+      <c r="B175">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="E175" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>103</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>18</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>4</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>6</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="E176" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>103</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>18</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>5</v>
+      </c>
+      <c r="B177">
+        <v>9</v>
+      </c>
+      <c r="C177">
+        <v>7</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E177" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177" t="s">
+        <v>103</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>18</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>6</v>
+      </c>
+      <c r="B178">
+        <v>13</v>
+      </c>
+      <c r="C178">
+        <v>18</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="E178" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>103</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J178">
+        <v>2</v>
+      </c>
+      <c r="K178">
+        <v>18</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="E179" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179" t="s">
+        <v>103</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
+      </c>
+      <c r="K179">
+        <v>18</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>8</v>
+      </c>
+      <c r="B180">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="5"/>
+        <v>-8</v>
+      </c>
+      <c r="E180" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>103</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J180">
+        <v>2</v>
+      </c>
+      <c r="K180">
+        <v>18</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>9</v>
+      </c>
+      <c r="B181">
+        <v>9</v>
+      </c>
+      <c r="C181">
+        <v>9</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E181" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181" t="s">
+        <v>103</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J181">
+        <v>2</v>
+      </c>
+      <c r="K181">
+        <v>18</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>10</v>
+      </c>
+      <c r="B182">
+        <v>13</v>
+      </c>
+      <c r="C182">
+        <v>7</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E182" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182" t="s">
+        <v>103</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
+      </c>
+      <c r="K182">
+        <v>18</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9708,7 +11048,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I1 I2:I161" twoDigitTextYear="1"/>
+    <ignoredError sqref="I1 I2:I161 I166:I172 I177:I182" twoDigitTextYear="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Data/WarsAnalysis/WarsAnalysis.xlsx
+++ b/Data/WarsAnalysis/WarsAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbbfilm/Documents/BasketballAnalyticsPortal/Data/WarsAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE7AE8B-ED0A-C242-91F9-B4242ED4B653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E48E1D2-7B1A-DB40-8DC8-04676C70C1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29200" windowHeight="18980" xr2:uid="{844EBB4D-025B-E04F-A75E-E177307491E4}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{844EBB4D-025B-E04F-A75E-E177307491E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Wars Analysis" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -507,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -530,7 +530,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2638,268 +2637,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C186F50-154B-A147-B546-F869F4B3C03D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AD1:AF4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="20" showAll="0">
-      <items count="67">
-        <item x="7"/>
-        <item x="10"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="64"/>
-        <item x="4"/>
-        <item x="56"/>
-        <item x="15"/>
-        <item x="41"/>
-        <item x="62"/>
-        <item x="12"/>
-        <item x="33"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="61"/>
-        <item x="53"/>
-        <item x="58"/>
-        <item x="63"/>
-        <item x="22"/>
-        <item x="14"/>
-        <item x="57"/>
-        <item x="39"/>
-        <item x="20"/>
-        <item x="65"/>
-        <item x="27"/>
-        <item x="32"/>
-        <item x="34"/>
-        <item x="19"/>
-        <item x="36"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="49"/>
-        <item x="47"/>
-        <item x="52"/>
-        <item x="59"/>
-        <item x="5"/>
-        <item x="48"/>
-        <item x="60"/>
-        <item x="11"/>
-        <item x="2"/>
-        <item x="43"/>
-        <item x="46"/>
-        <item x="51"/>
-        <item x="37"/>
-        <item x="24"/>
-        <item x="44"/>
-        <item x="50"/>
-        <item x="30"/>
-        <item x="54"/>
-        <item x="31"/>
-        <item x="17"/>
-        <item x="25"/>
-        <item x="16"/>
-        <item x="45"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="55"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="42"/>
-        <item x="35"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="63">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="27">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Lineup" fld="12" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Average of Seconds" fld="19" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="4" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="4" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{557DDF41-715E-BB4F-9F61-77278B66C5BB}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{557DDF41-715E-BB4F-9F61-77278B66C5BB}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="V1:AA51" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -3347,6 +3085,267 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C186F50-154B-A147-B546-F869F4B3C03D}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AD1:AF4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="20" showAll="0">
+      <items count="67">
+        <item x="7"/>
+        <item x="10"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="64"/>
+        <item x="4"/>
+        <item x="56"/>
+        <item x="15"/>
+        <item x="41"/>
+        <item x="62"/>
+        <item x="12"/>
+        <item x="33"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="61"/>
+        <item x="53"/>
+        <item x="58"/>
+        <item x="63"/>
+        <item x="22"/>
+        <item x="14"/>
+        <item x="57"/>
+        <item x="39"/>
+        <item x="20"/>
+        <item x="65"/>
+        <item x="27"/>
+        <item x="32"/>
+        <item x="34"/>
+        <item x="19"/>
+        <item x="36"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="49"/>
+        <item x="47"/>
+        <item x="52"/>
+        <item x="59"/>
+        <item x="5"/>
+        <item x="48"/>
+        <item x="60"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="43"/>
+        <item x="46"/>
+        <item x="51"/>
+        <item x="37"/>
+        <item x="24"/>
+        <item x="44"/>
+        <item x="50"/>
+        <item x="30"/>
+        <item x="54"/>
+        <item x="31"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="16"/>
+        <item x="45"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="55"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="35"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="63">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="27">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Lineup" fld="12" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Average of Seconds" fld="19" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="4" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}" name="WarsAnalysis" displayName="WarsAnalysis" ref="A1:L182" totalsRowShown="0">
   <autoFilter ref="A1:L182" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}"/>
@@ -3739,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F10F05-03F4-A745-9F0E-4F1A51D27D02}">
   <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="L181" sqref="L181"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="L182" sqref="L182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10651,7 +10650,7 @@
         <f t="shared" ref="D173:D182" si="5">B173-C173</f>
         <v>10</v>
       </c>
-      <c r="E173" s="20">
+      <c r="E173">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>1</v>
       </c>
@@ -10691,7 +10690,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E174" s="20">
+      <c r="E174">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>0</v>
       </c>
@@ -10731,7 +10730,7 @@
         <f t="shared" si="5"/>
         <v>-5</v>
       </c>
-      <c r="E175" s="20">
+      <c r="E175">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>0</v>
       </c>
@@ -10771,7 +10770,7 @@
         <f t="shared" si="5"/>
         <v>-6</v>
       </c>
-      <c r="E176" s="20">
+      <c r="E176">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>0</v>
       </c>
@@ -10811,7 +10810,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E177" s="20">
+      <c r="E177">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>1</v>
       </c>
@@ -10851,7 +10850,7 @@
         <f t="shared" si="5"/>
         <v>-5</v>
       </c>
-      <c r="E178" s="20">
+      <c r="E178">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>0</v>
       </c>
@@ -10891,7 +10890,7 @@
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
-      <c r="E179" s="20">
+      <c r="E179">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>0</v>
       </c>
@@ -10931,7 +10930,7 @@
         <f t="shared" si="5"/>
         <v>-8</v>
       </c>
-      <c r="E180" s="20">
+      <c r="E180">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>0</v>
       </c>
@@ -10971,7 +10970,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E181" s="20">
+      <c r="E181">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>0</v>
       </c>
@@ -11011,7 +11010,7 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E182" s="20">
+      <c r="E182">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>1</v>
       </c>

--- a/Data/WarsAnalysis/WarsAnalysis.xlsx
+++ b/Data/WarsAnalysis/WarsAnalysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbbfilm/Documents/BasketballAnalyticsPortal/Data/WarsAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E48E1D2-7B1A-DB40-8DC8-04676C70C1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00E5BC5-20AA-AE48-8DB9-4DA28A8BF01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{844EBB4D-025B-E04F-A75E-E177307491E4}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="105">
   <si>
     <t>WarNum</t>
   </si>
@@ -353,6 +353,9 @@
   <si>
     <t>UNA</t>
   </si>
+  <si>
+    <t>Lipscomb</t>
+  </si>
 </sst>
 </file>
 
@@ -507,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -530,11 +533,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -600,9 +607,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2637,7 +2641,268 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{557DDF41-715E-BB4F-9F61-77278B66C5BB}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C186F50-154B-A147-B546-F869F4B3C03D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="AD1:AF4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="22">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="20" showAll="0">
+      <items count="67">
+        <item x="7"/>
+        <item x="10"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="64"/>
+        <item x="4"/>
+        <item x="56"/>
+        <item x="15"/>
+        <item x="41"/>
+        <item x="62"/>
+        <item x="12"/>
+        <item x="33"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="61"/>
+        <item x="53"/>
+        <item x="58"/>
+        <item x="63"/>
+        <item x="22"/>
+        <item x="14"/>
+        <item x="57"/>
+        <item x="39"/>
+        <item x="20"/>
+        <item x="65"/>
+        <item x="27"/>
+        <item x="32"/>
+        <item x="34"/>
+        <item x="19"/>
+        <item x="36"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="49"/>
+        <item x="47"/>
+        <item x="52"/>
+        <item x="59"/>
+        <item x="5"/>
+        <item x="48"/>
+        <item x="60"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="43"/>
+        <item x="46"/>
+        <item x="51"/>
+        <item x="37"/>
+        <item x="24"/>
+        <item x="44"/>
+        <item x="50"/>
+        <item x="30"/>
+        <item x="54"/>
+        <item x="31"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="16"/>
+        <item x="45"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="55"/>
+        <item x="38"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="35"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="63">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="27">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Lineup" fld="12" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Average of Seconds" fld="19" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="4" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{557DDF41-715E-BB4F-9F61-77278B66C5BB}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="V1:AA51" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -3085,270 +3350,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C186F50-154B-A147-B546-F869F4B3C03D}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="AD1:AF4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="22">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="20" showAll="0">
-      <items count="67">
-        <item x="7"/>
-        <item x="10"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="64"/>
-        <item x="4"/>
-        <item x="56"/>
-        <item x="15"/>
-        <item x="41"/>
-        <item x="62"/>
-        <item x="12"/>
-        <item x="33"/>
-        <item x="23"/>
-        <item x="26"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="61"/>
-        <item x="53"/>
-        <item x="58"/>
-        <item x="63"/>
-        <item x="22"/>
-        <item x="14"/>
-        <item x="57"/>
-        <item x="39"/>
-        <item x="20"/>
-        <item x="65"/>
-        <item x="27"/>
-        <item x="32"/>
-        <item x="34"/>
-        <item x="19"/>
-        <item x="36"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="49"/>
-        <item x="47"/>
-        <item x="52"/>
-        <item x="59"/>
-        <item x="5"/>
-        <item x="48"/>
-        <item x="60"/>
-        <item x="11"/>
-        <item x="2"/>
-        <item x="43"/>
-        <item x="46"/>
-        <item x="51"/>
-        <item x="37"/>
-        <item x="24"/>
-        <item x="44"/>
-        <item x="50"/>
-        <item x="30"/>
-        <item x="54"/>
-        <item x="31"/>
-        <item x="17"/>
-        <item x="25"/>
-        <item x="16"/>
-        <item x="45"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="55"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="42"/>
-        <item x="35"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="63">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="27">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Count of Lineup" fld="12" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Average of Seconds" fld="19" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="4" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="4" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}" name="WarsAnalysis" displayName="WarsAnalysis" ref="A1:L182" totalsRowShown="0">
-  <autoFilter ref="A1:L182" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}" name="WarsAnalysis" displayName="WarsAnalysis" ref="A1:L192" totalsRowShown="0">
+  <autoFilter ref="A1:L192" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K161">
     <sortCondition ref="K1:K161"/>
   </sortState>
@@ -3357,7 +3361,7 @@
     <tableColumn id="2" xr3:uid="{59583B98-5196-A141-9F75-194A211B3FD4}" name="BU_Score"/>
     <tableColumn id="3" xr3:uid="{3D4AD2AE-8D5B-E748-8542-C2D124DE7B2E}" name="Opp_Score"/>
     <tableColumn id="4" xr3:uid="{955168FD-82D4-4746-90C4-A1E7E2266446}" name="ScoreDiff"/>
-    <tableColumn id="7" xr3:uid="{3EF17A98-0B0D-AC49-BD8C-7D668AE27FB4}" name="WarWon" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{3EF17A98-0B0D-AC49-BD8C-7D668AE27FB4}" name="WarWon" dataDxfId="0">
       <calculatedColumnFormula>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{32A831B3-7B02-674A-BCB8-EC43F7FC1BBA}" name="GameWon"/>
@@ -3736,10 +3740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F10F05-03F4-A745-9F0E-4F1A51D27D02}">
-  <dimension ref="A1:L182"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="L182" sqref="L182"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="K195" sqref="K195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10647,7 +10651,7 @@
         <v>6</v>
       </c>
       <c r="D173">
-        <f t="shared" ref="D173:D182" si="5">B173-C173</f>
+        <f t="shared" ref="D173:D192" si="5">B173-C173</f>
         <v>10</v>
       </c>
       <c r="E173">
@@ -11036,18 +11040,418 @@
         <v>1</v>
       </c>
     </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>9</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="E183" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183" t="s">
+        <v>104</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>19</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>2</v>
+      </c>
+      <c r="B184">
+        <v>8</v>
+      </c>
+      <c r="C184">
+        <v>15</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="E184" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>104</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>19</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>3</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>5</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="E185" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>104</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>19</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>11</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="E186" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>104</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>19</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>5</v>
+      </c>
+      <c r="B187">
+        <v>11</v>
+      </c>
+      <c r="C187">
+        <v>9</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E187" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>104</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>19</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>6</v>
+      </c>
+      <c r="B188">
+        <v>10</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E188" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>104</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J188">
+        <v>2</v>
+      </c>
+      <c r="K188">
+        <v>19</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>7</v>
+      </c>
+      <c r="B189">
+        <v>5</v>
+      </c>
+      <c r="C189">
+        <v>4</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E189" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>104</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J189">
+        <v>2</v>
+      </c>
+      <c r="K189">
+        <v>19</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>8</v>
+      </c>
+      <c r="B190">
+        <v>9</v>
+      </c>
+      <c r="C190">
+        <v>5</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="E190" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>104</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J190">
+        <v>2</v>
+      </c>
+      <c r="K190">
+        <v>19</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>9</v>
+      </c>
+      <c r="B191">
+        <v>7</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E191" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191" t="s">
+        <v>104</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191">
+        <v>19</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>10</v>
+      </c>
+      <c r="B192">
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <v>12</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E192" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>104</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J192">
+        <v>2</v>
+      </c>
+      <c r="K192">
+        <v>19</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I1 I2:I161 I166:I172 I177:I182" twoDigitTextYear="1"/>
+    <ignoredError sqref="I1 I2:I161 I166:I172 I177:I182 I187 I192" twoDigitTextYear="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -16925,18 +17329,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D1048444 O2:O1048444 D1048446:D1048473">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1048446:O1048473">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/WarsAnalysis/WarsAnalysis.xlsx
+++ b/Data/WarsAnalysis/WarsAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbbfilm/Documents/BasketballAnalyticsPortal/Data/WarsAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00E5BC5-20AA-AE48-8DB9-4DA28A8BF01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9059D894-61B2-7E48-B00E-DD8B44361A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{844EBB4D-025B-E04F-A75E-E177307491E4}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="18100" windowHeight="18980" xr2:uid="{844EBB4D-025B-E04F-A75E-E177307491E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Wars Analysis" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="106">
   <si>
     <t>WarNum</t>
   </si>
@@ -356,6 +356,9 @@
   <si>
     <t>Lipscomb</t>
   </si>
+  <si>
+    <t>EKU</t>
+  </si>
 </sst>
 </file>
 
@@ -540,9 +543,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -607,6 +607,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2641,7 +2644,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C186F50-154B-A147-B546-F869F4B3C03D}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C186F50-154B-A147-B546-F869F4B3C03D}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AD1:AF4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -2869,7 +2872,7 @@
     <dataField name="Average of Seconds" fld="19" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="8">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2879,7 +2882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="6">
       <pivotArea field="4" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2902,7 +2905,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{557DDF41-715E-BB4F-9F61-77278B66C5BB}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{557DDF41-715E-BB4F-9F61-77278B66C5BB}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="V1:AA51" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -3351,8 +3354,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}" name="WarsAnalysis" displayName="WarsAnalysis" ref="A1:L192" totalsRowShown="0">
-  <autoFilter ref="A1:L192" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}" name="WarsAnalysis" displayName="WarsAnalysis" ref="A1:L202" totalsRowShown="0">
+  <autoFilter ref="A1:L202" xr:uid="{E5420D39-36AD-864E-B0F5-B1AC94A7702F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K161">
     <sortCondition ref="K1:K161"/>
   </sortState>
@@ -3361,7 +3364,7 @@
     <tableColumn id="2" xr3:uid="{59583B98-5196-A141-9F75-194A211B3FD4}" name="BU_Score"/>
     <tableColumn id="3" xr3:uid="{3D4AD2AE-8D5B-E748-8542-C2D124DE7B2E}" name="Opp_Score"/>
     <tableColumn id="4" xr3:uid="{955168FD-82D4-4746-90C4-A1E7E2266446}" name="ScoreDiff"/>
-    <tableColumn id="7" xr3:uid="{3EF17A98-0B0D-AC49-BD8C-7D668AE27FB4}" name="WarWon" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{3EF17A98-0B0D-AC49-BD8C-7D668AE27FB4}" name="WarWon" dataDxfId="8">
       <calculatedColumnFormula>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{32A831B3-7B02-674A-BCB8-EC43F7FC1BBA}" name="GameWon"/>
@@ -3740,10 +3743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F10F05-03F4-A745-9F0E-4F1A51D27D02}">
-  <dimension ref="A1:L192"/>
+  <dimension ref="A1:L202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="K195" sqref="K195"/>
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10651,7 +10654,7 @@
         <v>6</v>
       </c>
       <c r="D173">
-        <f t="shared" ref="D173:D192" si="5">B173-C173</f>
+        <f t="shared" ref="D173:D202" si="5">B173-C173</f>
         <v>10</v>
       </c>
       <c r="E173">
@@ -11054,7 +11057,7 @@
         <f t="shared" si="5"/>
         <v>-7</v>
       </c>
-      <c r="E183" s="20">
+      <c r="E183">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>0</v>
       </c>
@@ -11094,7 +11097,7 @@
         <f t="shared" si="5"/>
         <v>-7</v>
       </c>
-      <c r="E184" s="20">
+      <c r="E184">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>0</v>
       </c>
@@ -11134,7 +11137,7 @@
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="E185" s="20">
+      <c r="E185">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>0</v>
       </c>
@@ -11174,7 +11177,7 @@
         <f t="shared" si="5"/>
         <v>-9</v>
       </c>
-      <c r="E186" s="20">
+      <c r="E186">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>0</v>
       </c>
@@ -11214,7 +11217,7 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E187" s="20">
+      <c r="E187">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>1</v>
       </c>
@@ -11254,7 +11257,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E188" s="20">
+      <c r="E188">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>1</v>
       </c>
@@ -11294,7 +11297,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E189" s="20">
+      <c r="E189">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>1</v>
       </c>
@@ -11334,7 +11337,7 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="E190" s="20">
+      <c r="E190">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>1</v>
       </c>
@@ -11374,7 +11377,7 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E191" s="20">
+      <c r="E191">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>1</v>
       </c>
@@ -11414,7 +11417,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E192" s="20">
+      <c r="E192">
         <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
         <v>1</v>
       </c>
@@ -11440,12 +11443,412 @@
         <v>0</v>
       </c>
     </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>7</v>
+      </c>
+      <c r="C193">
+        <v>7</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E193" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193" t="s">
+        <v>105</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>20</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>2</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194">
+        <v>6</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="E194" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>105</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>20</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>3</v>
+      </c>
+      <c r="B195">
+        <v>5</v>
+      </c>
+      <c r="C195">
+        <v>12</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="E195" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>105</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>20</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>4</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196">
+        <v>8</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="E196" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>105</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>20</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>5</v>
+      </c>
+      <c r="B197">
+        <v>8</v>
+      </c>
+      <c r="C197">
+        <v>7</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E197" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197" t="s">
+        <v>105</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>20</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>6</v>
+      </c>
+      <c r="B198">
+        <v>11</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="E198" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198" t="s">
+        <v>105</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+      <c r="K198">
+        <v>20</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>7</v>
+      </c>
+      <c r="B199">
+        <v>8</v>
+      </c>
+      <c r="C199">
+        <v>15</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="E199" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199" t="s">
+        <v>105</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J199">
+        <v>2</v>
+      </c>
+      <c r="K199">
+        <v>20</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200">
+        <v>10</v>
+      </c>
+      <c r="C200">
+        <v>12</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="E200" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200" t="s">
+        <v>105</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J200">
+        <v>2</v>
+      </c>
+      <c r="K200">
+        <v>20</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>9</v>
+      </c>
+      <c r="B201">
+        <v>9</v>
+      </c>
+      <c r="C201">
+        <v>10</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="E201" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201" t="s">
+        <v>105</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J201">
+        <v>2</v>
+      </c>
+      <c r="K201">
+        <v>20</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>10</v>
+      </c>
+      <c r="B202">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="E202" s="20">
+        <f>IF(WarsAnalysis[[#This Row],[ScoreDiff]]&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202" t="s">
+        <v>105</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J202">
+        <v>2</v>
+      </c>
+      <c r="K202">
+        <v>20</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17329,18 +17732,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D1048444 O2:O1048444 D1048446:D1048473">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1048446:O1048473">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
